--- a/output/ValueSet-rtlsMessageEvents.xlsx
+++ b/output/ValueSet-rtlsMessageEvents.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
+    <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/ValueSet-rtlsMessageEvents.xlsx
+++ b/output/ValueSet-rtlsMessageEvents.xlsx
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/ValueSet-rtlsMessageEvents.xlsx
+++ b/output/ValueSet-rtlsMessageEvents.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/Special/committees/pafm)</t>
+    <t>null (http://www.hl7.org/Special/committees/pafm)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
